--- a/Admin/Timesheets Nov 2 - 8/Dylan_Sain_Timesheet.xlsx
+++ b/Admin/Timesheets Nov 2 - 8/Dylan_Sain_Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raysa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C9D2C8-A338-4B48-AA4B-1465C57EA142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908093E8-0600-4462-A025-F7FC5BE0CA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7308" yWindow="4092" windowWidth="15360" windowHeight="8148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,13 +474,14 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.109375" customWidth="1"/>
   </cols>
@@ -544,25 +545,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="11">
-        <v>44137</v>
+        <v>44144</v>
       </c>
       <c r="C5" s="11">
-        <v>44138</v>
+        <v>44145</v>
       </c>
       <c r="D5" s="11">
-        <v>44139</v>
+        <v>44146</v>
       </c>
       <c r="E5" s="11">
-        <v>44140</v>
+        <v>44147</v>
       </c>
       <c r="F5" s="11">
-        <v>44141</v>
+        <v>44148</v>
       </c>
       <c r="G5" s="11">
-        <v>44142</v>
+        <v>44149</v>
       </c>
       <c r="H5" s="12">
-        <v>44143</v>
+        <v>44150</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>4</v>
@@ -612,19 +613,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>0.15</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5">
         <f>SUM(B8:H8)</f>
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -657,7 +654,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
@@ -665,7 +662,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
@@ -681,7 +678,7 @@
       </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="J10" s="6"/>
     </row>
